--- a/LAPORAN/DATA lapangan.xlsx
+++ b/LAPORAN/DATA lapangan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>nama</t>
   </si>
@@ -28,16 +28,99 @@
   </si>
   <si>
     <t>alamat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gor bulu tangkis warna agung </t>
+  </si>
+  <si>
+    <t>Gg. Hiu Putih, Kekalik Jaya, Kec. Sekarbela, Kota Mataram, Nusa Tenggara Bar. 83114</t>
+  </si>
+  <si>
+    <t>Jl. KH. Ahmad Dahlan No.41B, Pagesangan, Kec. Mataram, Kota Mataram, Nusa Tenggara Bar. 83116</t>
+  </si>
+  <si>
+    <t>gor bulu tangkis bintang</t>
+  </si>
+  <si>
+    <t>gor garuda</t>
+  </si>
+  <si>
+    <t>Jl. Swasembada No.32, Kekalik Jaya, Kec. Sekarbela, Kota Mataram, Nusa Tenggara Bar. 83115</t>
+  </si>
+  <si>
+    <t>-8.605488583586792, 116.11161163065378</t>
+  </si>
+  <si>
+    <t>Pagutan Bar., Kec. Mataram, Kota Mataram, Nusa Tenggara Bar. 83127</t>
+  </si>
+  <si>
+    <t>gor bulu tangkis puriartha</t>
+  </si>
+  <si>
+    <t>Gor BATUR Bulutangkis</t>
+  </si>
+  <si>
+    <t>-8.577851086030648, 116.07433741719652</t>
+  </si>
+  <si>
+    <t>Jl. Energi gang pogot karang buyuk, Ampenan Sel., Kec. Ampenan, Kota Mataram, Nusa Tenggara Bar. 83112</t>
+  </si>
+  <si>
+    <t>gelanggang pemuda loahraga</t>
+  </si>
+  <si>
+    <t>-8.580995656878384, 116.08806265594296</t>
+  </si>
+  <si>
+    <t>Jl. Pendidikan, Dasan Agung Baru, Kec. Selaparang, Kota Mataram, Nusa Tenggara Bar. 83126</t>
+  </si>
+  <si>
+    <t>-8.594361452369611, 116.14091866146562</t>
+  </si>
+  <si>
+    <t>Gedung Bulutangkis Universitas Mataram</t>
+  </si>
+  <si>
+    <t>Jl. Brawijaya No.22, Cakranegara Sel. Baru, Kec. Cakranegara, Kota Mataram, Nusa Tenggara Bar. 83233</t>
+  </si>
+  <si>
+    <t>-8.577798493834633, 116.14349962649526</t>
+  </si>
+  <si>
+    <t>putra gora</t>
+  </si>
+  <si>
+    <t>Jl. Gora, Selagalas, Kec. Sandubaya, Kota Mataram, Nusa Tenggara Bar. 83237</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color rgb="FF4285F4"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF999999"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -63,8 +146,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -366,15 +454,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -391,8 +481,106 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>-8.5929900000000004</v>
+      </c>
+      <c r="C2">
+        <v>116.076694</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2">
+        <v>-8.6057900000000007</v>
+      </c>
+      <c r="C3">
+        <v>116.10162200000001</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>-8.5923926568505795</v>
+      </c>
+      <c r="C4">
+        <v>116.08912632649501</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
